--- a/biology/Médecine/Hôpital_Maisonneuve-Rosemont/Hôpital_Maisonneuve-Rosemont.xlsx
+++ b/biology/Médecine/Hôpital_Maisonneuve-Rosemont/Hôpital_Maisonneuve-Rosemont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Maisonneuve-Rosemont</t>
+          <t>Hôpital_Maisonneuve-Rosemont</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital Maisonneuve-Rosemont (HMR) est un hôpital de Montréal, situé dans l'arrondissement Rosemont–La Petite-Patrie. Affilié à l'Université de Montréal, il dessert l'est de la ville et offre 588 lits. Il emploie 5 000 personnes et reçoit chaque année 3 000 étudiants.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Maisonneuve-Rosemont</t>
+          <t>Hôpital_Maisonneuve-Rosemont</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,19 +526,133 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondation
-L'Hôpital Maisonneuve-Rosemont, fondé en 1971, résulte de la fusion de deux institutions hospitalières : l'Hôpital Maisonneuve et l'Hôpital Saint-Joseph de Rosemont[1].
+          <t>Fondation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hôpital Maisonneuve-Rosemont, fondé en 1971, résulte de la fusion de deux institutions hospitalières : l'Hôpital Maisonneuve et l'Hôpital Saint-Joseph de Rosemont.
 L'Hôpital Maisonneuve, fondé par les Sœurs grises en 1954, hébergeait une école d'infirmières et l'Institut de Cardiologie de Montréal. Quant à l'Hôpital Saint-Joseph, fondé en 1950 par les Sœurs de la Miséricorde, il était spécialisé dans les soins aux tuberculeux.
-Loi 10, abolitions et fusions
-Le 25 septembre 2014, le ministre de la Santé et des Services sociaux Gaétan Barrette (Parti libéral du Québec) suivant sa promesse électorale, présente le projet de loi 10[2] pour la fusion de services et l'abolition des Agences régionales de santé et de services sociaux. La loi 10 est finalement adoptée en février 2015. Elle entre en vigueur le 1er avril 2015. Ce faisant, le ministre a l'intention de « simplifier l’accès aux services pour la population, de contribuer à l’amélioration de la qualité et de la sécurité des soins et d’accroître l’efficience et l’efficacité de ce réseau »[3].
-Des CISSS et des CIUSSS
-La loi 10, entrée en vigueur en 2015, a généré la création de 13 centres intégrés de santé et de services sociaux (CISSS) et 9 centres intégrés universitaires de santé et de services sociaux (CIUSSS)[4], soit des organes responsables de la gestion et des opérations des établissements de santé sur un territoire donné.
-Le CIUSSS de l'Est-de-l'Île-de-Montréal
-L'Hôpital Maisonneuve-Rosemont fait depuis 2015 partie du Centre intégré universitaire de santé et de services sociaux de l’Est-de-l’Île-de-Montréal, qui compte 2 hôpitaux, 1 institut universitaire, 8 CLSC et 15 CHSLD desservis par environ 15 000 employés dont près de 900 médecins[5].
-Hôpital Maisonneuve-Rosemont [6]
-Hôpital Santa Cabrini Ospedale[7]
-Institut universitaire en santé mentale de Montréal[8]
-CHSLD Benjamin-Victor-Rousselot[9]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hôpital_Maisonneuve-Rosemont</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Maisonneuve-Rosemont</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Loi 10, abolitions et fusions</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 25 septembre 2014, le ministre de la Santé et des Services sociaux Gaétan Barrette (Parti libéral du Québec) suivant sa promesse électorale, présente le projet de loi 10 pour la fusion de services et l'abolition des Agences régionales de santé et de services sociaux. La loi 10 est finalement adoptée en février 2015. Elle entre en vigueur le 1er avril 2015. Ce faisant, le ministre a l'intention de « simplifier l’accès aux services pour la population, de contribuer à l’amélioration de la qualité et de la sécurité des soins et d’accroître l’efficience et l’efficacité de ce réseau ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hôpital_Maisonneuve-Rosemont</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Maisonneuve-Rosemont</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Des CISSS et des CIUSSS</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La loi 10, entrée en vigueur en 2015, a généré la création de 13 centres intégrés de santé et de services sociaux (CISSS) et 9 centres intégrés universitaires de santé et de services sociaux (CIUSSS), soit des organes responsables de la gestion et des opérations des établissements de santé sur un territoire donné.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hôpital_Maisonneuve-Rosemont</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Maisonneuve-Rosemont</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Des CISSS et des CIUSSS</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Le CIUSSS de l'Est-de-l'Île-de-Montréal</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'Hôpital Maisonneuve-Rosemont fait depuis 2015 partie du Centre intégré universitaire de santé et de services sociaux de l’Est-de-l’Île-de-Montréal, qui compte 2 hôpitaux, 1 institut universitaire, 8 CLSC et 15 CHSLD desservis par environ 15 000 employés dont près de 900 médecins.
+Hôpital Maisonneuve-Rosemont 
+Hôpital Santa Cabrini Ospedale
+Institut universitaire en santé mentale de Montréal
+CHSLD Benjamin-Victor-Rousselot
 CHSLD Dante
 CHSLD de Saint-Michel
 Centre d’hébergement J.-Henri Charbonneau
@@ -537,7 +663,7 @@
 CHSLD Marie-Rollet
 CHSLD Nicolet
 CHSLD Pierre-Joseph-Triest
-CHSLD Polonais Marie-Curie-Sklodowska[10]
+CHSLD Polonais Marie-Curie-Sklodowska
 CHSLD Robert-Cliche
 CHSLD Jeanne Leber
 CHSLD Judith-Jasmin
@@ -548,71 +674,109 @@
 CLSC de Rosemont
 CLSC de Saint-Léonard
 CLSC de Saint-Michel
-CLSC Olivier-Guimond
-Agrandissement
-Dès 2023, un agrandissement coûtant « plusieurs milliards de dollars » est prévue[11],[12].
+CLSC Olivier-Guimond</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hôpital_Maisonneuve-Rosemont</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Maisonneuve-Rosemont</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Agrandissement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès 2023, un agrandissement coûtant « plusieurs milliards de dollars » est prévue,.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>H%C3%B4pital_Maisonneuve-Rosemont</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hôpital_Maisonneuve-Rosemont</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Maisonneuve-Rosemont</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Spécialités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hôpital Maisonneuve-Rosemont offre toutes les spécialités médicales. En outre, il a acquis une réputation notable en certains domaines particuliers : la santé mentale, l'ophtalmologie, la thérapie cellulaire (traitement de la leucémie et d'autres formes de cancers grâce aux cellules souches), cancérologie des sarcomes musculo-squelettiques et la néphrologie[13].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hôpital Maisonneuve-Rosemont offre toutes les spécialités médicales. En outre, il a acquis une réputation notable en certains domaines particuliers : la santé mentale, l'ophtalmologie, la thérapie cellulaire (traitement de la leucémie et d'autres formes de cancers grâce aux cellules souches), cancérologie des sarcomes musculo-squelettiques et la néphrologie.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>H%C3%B4pital_Maisonneuve-Rosemont</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hôpital_Maisonneuve-Rosemont</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_Maisonneuve-Rosemont</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>État des lieux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Constat des années 2020, le pavillon principal cruciforme de onze étages est vétuste. C'est dans ce pavillon que sont situés la majorité des chambres, les salles d'opération, l'urgence et les soins intensifs. De l'avis du responsable des soins intensifs; Il n'y a rien qui soit aux standards modernes: il y a des pièces d'équipements médicaux qui ne peuvent être installées parce qu'il n'y a pas assez d'électricité dans les murs. Les corridors sont trop étroits, les chambres sont trop petites, l'aération est essentiellement inexistante et il y a plusieurs fenêtres qui sont condamnées[14].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Constat des années 2020, le pavillon principal cruciforme de onze étages est vétuste. C'est dans ce pavillon que sont situés la majorité des chambres, les salles d'opération, l'urgence et les soins intensifs. De l'avis du responsable des soins intensifs; Il n'y a rien qui soit aux standards modernes: il y a des pièces d'équipements médicaux qui ne peuvent être installées parce qu'il n'y a pas assez d'électricité dans les murs. Les corridors sont trop étroits, les chambres sont trop petites, l'aération est essentiellement inexistante et il y a plusieurs fenêtres qui sont condamnées.
 </t>
         </is>
       </c>
